--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_44.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_44.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.126984126984127</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.78, 24.86)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.536, 9.774)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>jaah_54</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1141025641025641</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.9, 23.84)]</t>
+          <t>[['F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(50.46, 54.48)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:33.310000', '0:00:47.630000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:08.200000', '0:00:10.960000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(105.425056, 115.003287)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0632209405501331</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1138310893512852</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:36.752312', '0:01:39.387777'), ('0:00:24.387324', '0:00:27.452358')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:12.020000', '0:00:25.140000'), ('0:00:01.440000', '0:00:06.840000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07061307475758523</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1885964912280702</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['G', 'C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(18.66, 20.74)]</t>
+          <t>[['G', 'C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14)]</t>
+          <t>[('0:00:50.506553', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:03.629047', '0:01:14.101247')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3044871794871795</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'A']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(27.963197, 40.095623)]</t>
+          <t>[['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(32.874217, 42.916848)]</t>
+          <t>[('0:00:48', '0:00:52.200000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:00.240000', '0:00:05.080000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.17907, 21.844739)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.114353782013103</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3639705882352942</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
+          <t>[['E', 'A', 'F#:min', 'A', 'F#:min', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[['A', 'D', 'B:min', 'D', 'B:min', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(34.65, 38.79)]</t>
+          <t>[('0:00:00.440395', '0:00:20.096214')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:25.887570', '0:00:38.276075')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1251221896383187</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D', 'D/5']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(22.94, 30.25)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.919478)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(123.22, 126.88)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01759782170229932</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.37, 8.66)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.43, 14.59)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Db', 'Gb', 'Ab', 'Db']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(55.589104, 74.118628)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.344657, 7.314387)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08555555555555555</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'G']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(103.35, 106.64)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.399, 12.648)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09584178498985801</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.20815, 11.03585)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
